--- a/Master/master/Skill.xlsx
+++ b/Master/master/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">$MEMBERS</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">MotionName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotionSpeed</t>
   </si>
   <si>
     <t xml:space="preserve">PlayTime</t>
@@ -174,20 +177,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F9"/>
+  <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.91"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -209,41 +213,50 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.33</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -252,15 +265,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.53</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -269,15 +285,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.5</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -286,15 +305,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>2.36</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -303,15 +325,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>2.11</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Master/master/Skill.xlsx
+++ b/Master/master/Skill.xlsx
@@ -180,14 +180,14 @@
   <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.49"/>
@@ -254,7 +254,7 @@
         <v>0.66</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
@@ -274,7 +274,7 @@
         <v>0.76</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>3</v>
